--- a/DIGI KULT ÉRETTSÉGI GYAKORLÁS/e_digkultfor_24maj_fl/Megoldás/lampak.xlsx
+++ b/DIGI KULT ÉRETTSÉGI GYAKORLÁS/e_digkultfor_24maj_fl/Megoldás/lampak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\munkakönyvtár\Kovács Máté\visualstudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Suli\Programozasi-alapok\PythonSuli\DIGI KULT ÉRETTSÉGI GYAKORLÁS\e_digkultfor_24maj_fl\Megoldás\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83374E20-80EF-4769-BE2C-452202E455C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A91CAF-BED6-4065-BCC7-CB47079AC84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="6510" xr2:uid="{41354393-7B05-4F13-A821-329A91E7A4D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{41354393-7B05-4F13-A821-329A91E7A4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -445,9 +456,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,22 +609,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1380,9 +1388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1420,7 +1428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1526,7 +1534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1668,7 +1676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1676,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9189813B-BBE9-4895-9BE7-A3AB0F06C9B9}">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1707,7 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="str">
         <f>""</f>
         <v/>
@@ -1750,7 +1758,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1792,44 +1800,32 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>1</v>
       </c>
       <c r="N3" s="8">
         <v>2</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>3</v>
       </c>
       <c r="P3" s="8">
         <v>4</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>5</v>
       </c>
       <c r="R3" s="8">
         <v>6</v>
       </c>
-      <c r="S3" s="4" t="b">
-        <f ca="1">$B3=H1</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="b">
-        <f>MOD(COUNTIF(H$2:H2,"Ég"),2)=0</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="4" t="b">
-        <f ca="1">AND($B3=H1,MOD(COUNTIF(H$2:H2,"Ég"),2)=0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C4" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B4,C$1),2)=1, "Ég", "")</f>
@@ -1837,7 +1833,7 @@
       </c>
       <c r="D4" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B4,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E4" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B4,E$1),2)=1, "Ég", "")</f>
@@ -1845,7 +1841,7 @@
       </c>
       <c r="F4" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B4,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G4" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B4,G$1),2)=1, "Ég", "")</f>
@@ -1857,63 +1853,63 @@
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I67" ca="1" si="1">COUNTIF(C4:H4,"Ég")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L4" s="8">
         <f ca="1">COUNTIF($I$3:$I$102,L3)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" s="8">
         <f ca="1">COUNTIF($I$3:$I$102,M3)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" ref="M4:Q4" ca="1" si="2">COUNTIF($I$3:$I$102,N3)</f>
-        <v>22</v>
+        <f t="shared" ref="N4:Q4" ca="1" si="2">COUNTIF($I$3:$I$102,N3)</f>
+        <v>26</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4" s="8">
         <f ca="1">COUNTIF($I$3:$I$102,R3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C5" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B5,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D5" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B5,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E5" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B5,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F5" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B5,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G5" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B5,G$1),2)=1, "Ég", "")</f>
@@ -1925,14 +1921,14 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>111</v>
       </c>
       <c r="L5" s="5" t="str">
         <f ca="1">IFERROR(INDEX(A3:A102,MATCH(6,I3:I102,0)),"Nincs ilyen")</f>
-        <v>92.</v>
+        <v>90.</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1941,13 +1937,13 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C6" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B6,C$1),2)=1, "Ég", "")</f>
@@ -1959,11 +1955,11 @@
       </c>
       <c r="E6" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B6,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F6" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B6,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G6" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B6,G$1),2)=1, "Ég", "")</f>
@@ -1974,21 +1970,21 @@
         <v/>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">COUNTIF(C6:H6,"Ég")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C7" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B7,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D7" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B7,D$1),2)=1, "Ég", "")</f>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="E7" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B7,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F7" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B7,F$1),2)=1, "Ég", "")</f>
@@ -2012,16 +2008,16 @@
       </c>
       <c r="I7" s="4">
         <f ca="1">COUNTIF(C7:H7,"Ég")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C8" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B8,C$1),2)=1, "Ég", "")</f>
@@ -2033,7 +2029,7 @@
       </c>
       <c r="E8" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B8,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F8" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B8,F$1),2)=1, "Ég", "")</f>
@@ -2041,7 +2037,7 @@
       </c>
       <c r="G8" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B8,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H8" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B8,H$1),2)=1, "Ég", "")</f>
@@ -2049,28 +2045,28 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C9" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B9,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D9" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B9,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E9" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B9,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F9" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B9,F$1),2)=1, "Ég", "")</f>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B9,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H9" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B9,H$1),2)=1, "Ég", "")</f>
@@ -2086,16 +2082,16 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C10" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B10,C$1),2)=1, "Ég", "")</f>
@@ -2103,11 +2099,11 @@
       </c>
       <c r="D10" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B10,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B10,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B10,F$1),2)=1, "Ég", "")</f>
@@ -2115,24 +2111,24 @@
       </c>
       <c r="G10" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B10,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H10" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B10,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C11" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B11,C$1),2)=1, "Ég", "")</f>
@@ -2140,19 +2136,19 @@
       </c>
       <c r="D11" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B11,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E11" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B11,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F11" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B11,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G11" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B11,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H11" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B11,H$1),2)=1, "Ég", "")</f>
@@ -2160,16 +2156,16 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C12" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B12,C$1),2)=1, "Ég", "")</f>
@@ -2181,32 +2177,32 @@
       </c>
       <c r="E12" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B12,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F12" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B12,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G12" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B12,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H12" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B12,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C13" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B13,C$1),2)=1, "Ég", "")</f>
@@ -2214,7 +2210,7 @@
       </c>
       <c r="D13" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B13,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E13" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B13,E$1),2)=1, "Ég", "")</f>
@@ -2222,28 +2218,28 @@
       </c>
       <c r="F13" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B13,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G13" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B13,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H13" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B13,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C14" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B14,C$1),2)=1, "Ég", "")</f>
@@ -2251,19 +2247,19 @@
       </c>
       <c r="D14" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B14,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B14,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F14" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B14,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G14" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B14,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H14" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B14,H$1),2)=1, "Ég", "")</f>
@@ -2271,28 +2267,28 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C15" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B15,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D15" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B15,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E15" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B15,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F15" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B15,F$1),2)=1, "Ég", "")</f>
@@ -2300,7 +2296,7 @@
       </c>
       <c r="G15" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B15,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H15" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B15,H$1),2)=1, "Ég", "")</f>
@@ -2308,10 +2304,10 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2321,15 +2317,15 @@
       </c>
       <c r="C16" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B16,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D16" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B16,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E16" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B16,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F16" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B16,F$1),2)=1, "Ég", "")</f>
@@ -2337,7 +2333,7 @@
       </c>
       <c r="G16" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B16,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H16" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B16,H$1),2)=1, "Ég", "")</f>
@@ -2345,7 +2341,7 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2354,11 +2350,11 @@
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C17" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B17,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D17" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B17,D$1),2)=1, "Ég", "")</f>
@@ -2374,7 +2370,7 @@
       </c>
       <c r="G17" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B17,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H17" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B17,H$1),2)=1, "Ég", "")</f>
@@ -2382,7 +2378,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2391,15 +2387,15 @@
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C18" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B18,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D18" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B18,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B18,E$1),2)=1, "Ég", "")</f>
@@ -2419,7 +2415,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2428,15 +2424,15 @@
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C19" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B19,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D19" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B19,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E19" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B19,E$1),2)=1, "Ég", "")</f>
@@ -2444,7 +2440,7 @@
       </c>
       <c r="F19" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B19,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G19" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B19,G$1),2)=1, "Ég", "")</f>
@@ -2452,7 +2448,7 @@
       </c>
       <c r="H19" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B19,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2465,19 +2461,19 @@
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C20" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B20,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D20" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B20,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B20,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F20" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B20,F$1),2)=1, "Ég", "")</f>
@@ -2489,11 +2485,11 @@
       </c>
       <c r="H20" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B20,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2502,11 +2498,11 @@
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C21" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B21,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D21" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B21,D$1),2)=1, "Ég", "")</f>
@@ -2514,11 +2510,11 @@
       </c>
       <c r="E21" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B21,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F21" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B21,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G21" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B21,G$1),2)=1, "Ég", "")</f>
@@ -2526,7 +2522,7 @@
       </c>
       <c r="H21" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B21,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2539,7 +2535,7 @@
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C22" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B22,C$1),2)=1, "Ég", "")</f>
@@ -2547,15 +2543,15 @@
       </c>
       <c r="D22" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B22,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B22,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F22" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B22,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G22" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B22,G$1),2)=1, "Ég", "")</f>
@@ -2563,7 +2559,7 @@
       </c>
       <c r="H22" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B22,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2576,31 +2572,31 @@
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C23" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B23,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D23" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B23,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E23" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B23,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F23" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B23,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G23" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B23,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H23" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B23,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2613,11 +2609,11 @@
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C24" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B24,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D24" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B24,D$1),2)=1, "Ég", "")</f>
@@ -2625,15 +2621,15 @@
       </c>
       <c r="E24" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B24,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F24" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B24,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G24" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B24,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H24" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B24,H$1),2)=1, "Ég", "")</f>
@@ -2654,7 +2650,7 @@
       </c>
       <c r="C25" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B25,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D25" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B25,D$1),2)=1, "Ég", "")</f>
@@ -2662,15 +2658,15 @@
       </c>
       <c r="E25" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B25,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F25" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B25,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G25" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B25,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H25" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B25,H$1),2)=1, "Ég", "")</f>
@@ -2678,7 +2674,7 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2687,19 +2683,19 @@
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C26" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B26,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D26" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B26,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E26" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B26,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F26" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B26,F$1),2)=1, "Ég", "")</f>
@@ -2707,7 +2703,7 @@
       </c>
       <c r="G26" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B26,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H26" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B26,H$1),2)=1, "Ég", "")</f>
@@ -2724,11 +2720,11 @@
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C27" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B27,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D27" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B27,D$1),2)=1, "Ég", "")</f>
@@ -2744,7 +2740,7 @@
       </c>
       <c r="G27" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B27,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H27" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B27,H$1),2)=1, "Ég", "")</f>
@@ -2761,15 +2757,15 @@
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C28" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B28,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D28" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B28,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B28,E$1),2)=1, "Ég", "")</f>
@@ -2777,11 +2773,11 @@
       </c>
       <c r="F28" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B28,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G28" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B28,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H28" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B28,H$1),2)=1, "Ég", "")</f>
@@ -2789,7 +2785,7 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2798,23 +2794,23 @@
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C29" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B29,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D29" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B29,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E29" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B29,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F29" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B29,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G29" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B29,G$1),2)=1, "Ég", "")</f>
@@ -2835,15 +2831,15 @@
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C30" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B30,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D30" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B30,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B30,E$1),2)=1, "Ég", "")</f>
@@ -2851,7 +2847,7 @@
       </c>
       <c r="F30" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B30,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G30" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B30,G$1),2)=1, "Ég", "")</f>
@@ -2859,11 +2855,11 @@
       </c>
       <c r="H30" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B30,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2872,11 +2868,11 @@
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C31" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B31,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D31" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B31,D$1),2)=1, "Ég", "")</f>
@@ -2896,7 +2892,7 @@
       </c>
       <c r="H31" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B31,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I31" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -2909,7 +2905,7 @@
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C32" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B32,C$1),2)=1, "Ég", "")</f>
@@ -2929,15 +2925,15 @@
       </c>
       <c r="G32" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B32,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H32" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B32,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f ca="1">COUNTIF(C32:H32,"Ég")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2966,11 +2962,11 @@
       </c>
       <c r="G33" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B33,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H33" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B33,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3003,11 +2999,11 @@
       </c>
       <c r="G34" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B34,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H34" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B34,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3020,15 +3016,15 @@
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C35" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B35,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D35" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B35,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E35" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B35,E$1),2)=1, "Ég", "")</f>
@@ -3040,11 +3036,11 @@
       </c>
       <c r="G35" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B35,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H35" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B35,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3057,7 +3053,7 @@
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C36" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B36,C$1),2)=1, "Ég", "")</f>
@@ -3065,7 +3061,7 @@
       </c>
       <c r="D36" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B36,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B36,E$1),2)=1, "Ég", "")</f>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="H36" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B36,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3094,7 +3090,7 @@
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C37" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B37,C$1),2)=1, "Ég", "")</f>
@@ -3102,15 +3098,15 @@
       </c>
       <c r="D37" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B37,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E37" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B37,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F37" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B37,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G37" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B37,G$1),2)=1, "Ég", "")</f>
@@ -3118,11 +3114,11 @@
       </c>
       <c r="H37" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B37,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3131,11 +3127,11 @@
       </c>
       <c r="B38" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C38" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B38,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D38" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B38,D$1),2)=1, "Ég", "")</f>
@@ -3143,11 +3139,11 @@
       </c>
       <c r="E38" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B38,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F38" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B38,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G38" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B38,G$1),2)=1, "Ég", "")</f>
@@ -3155,11 +3151,11 @@
       </c>
       <c r="H38" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B38,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,35 +3164,35 @@
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C39" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B39,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D39" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B39,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E39" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B39,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F39" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B39,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G39" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B39,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H39" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B39,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3205,23 +3201,23 @@
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C40" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B40,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D40" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B40,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B40,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F40" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B40,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G40" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B40,G$1),2)=1, "Ég", "")</f>
@@ -3233,7 +3229,7 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,15 +3238,15 @@
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C41" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B41,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D41" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B41,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E41" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B41,E$1),2)=1, "Ég", "")</f>
@@ -3279,7 +3275,7 @@
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C42" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B42,C$1),2)=1, "Ég", "")</f>
@@ -3287,7 +3283,7 @@
       </c>
       <c r="D42" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B42,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B42,E$1),2)=1, "Ég", "")</f>
@@ -3299,7 +3295,7 @@
       </c>
       <c r="G42" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B42,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H42" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B42,H$1),2)=1, "Ég", "")</f>
@@ -3316,15 +3312,15 @@
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C43" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B43,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D43" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B43,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E43" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B43,E$1),2)=1, "Ég", "")</f>
@@ -3336,11 +3332,11 @@
       </c>
       <c r="G43" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B43,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H43" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B43,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I43" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3357,11 +3353,11 @@
       </c>
       <c r="C44" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B44,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D44" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B44,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B44,E$1),2)=1, "Ég", "")</f>
@@ -3373,11 +3369,11 @@
       </c>
       <c r="G44" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B44,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H44" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B44,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I44" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3390,19 +3386,19 @@
       </c>
       <c r="B45" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C45" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B45,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D45" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B45,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E45" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B45,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F45" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B45,F$1),2)=1, "Ég", "")</f>
@@ -3414,7 +3410,7 @@
       </c>
       <c r="H45" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B45,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I45" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3427,7 +3423,7 @@
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C46" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B46,C$1),2)=1, "Ég", "")</f>
@@ -3435,11 +3431,11 @@
       </c>
       <c r="D46" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B46,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B46,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F46" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B46,F$1),2)=1, "Ég", "")</f>
@@ -3447,15 +3443,15 @@
       </c>
       <c r="G46" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B46,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B46,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3464,7 +3460,7 @@
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C47" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B47,C$1),2)=1, "Ég", "")</f>
@@ -3476,7 +3472,7 @@
       </c>
       <c r="E47" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B47,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F47" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B47,F$1),2)=1, "Ég", "")</f>
@@ -3488,7 +3484,7 @@
       </c>
       <c r="H47" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B47,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I47" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3501,7 +3497,7 @@
       </c>
       <c r="B48" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C48" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B48,C$1),2)=1, "Ég", "")</f>
@@ -3513,7 +3509,7 @@
       </c>
       <c r="E48" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B48,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F48" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B48,F$1),2)=1, "Ég", "")</f>
@@ -3521,7 +3517,7 @@
       </c>
       <c r="G48" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B48,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H48" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B48,H$1),2)=1, "Ég", "")</f>
@@ -3538,7 +3534,7 @@
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C49" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B49,C$1),2)=1, "Ég", "")</f>
@@ -3554,11 +3550,11 @@
       </c>
       <c r="F49" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B49,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G49" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B49,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H49" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B49,H$1),2)=1, "Ég", "")</f>
@@ -3575,7 +3571,7 @@
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C50" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B50,C$1),2)=1, "Ég", "")</f>
@@ -3587,7 +3583,7 @@
       </c>
       <c r="E50" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B50,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F50" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B50,F$1),2)=1, "Ég", "")</f>
@@ -3595,7 +3591,7 @@
       </c>
       <c r="G50" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B50,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H50" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B50,H$1),2)=1, "Ég", "")</f>
@@ -3612,11 +3608,11 @@
       </c>
       <c r="B51" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C51" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B51,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D51" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B51,D$1),2)=1, "Ég", "")</f>
@@ -3624,7 +3620,7 @@
       </c>
       <c r="E51" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B51,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F51" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B51,F$1),2)=1, "Ég", "")</f>
@@ -3632,11 +3628,11 @@
       </c>
       <c r="G51" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B51,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H51" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B51,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I51" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3649,11 +3645,11 @@
       </c>
       <c r="B52" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C52" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B52,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D52" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B52,D$1),2)=1, "Ég", "")</f>
@@ -3661,7 +3657,7 @@
       </c>
       <c r="E52" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B52,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F52" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B52,F$1),2)=1, "Ég", "")</f>
@@ -3677,7 +3673,7 @@
       </c>
       <c r="I52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3686,15 +3682,15 @@
       </c>
       <c r="B53" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C53" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B53,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D53" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B53,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E53" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B53,E$1),2)=1, "Ég", "")</f>
@@ -3714,7 +3710,7 @@
       </c>
       <c r="I53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3727,11 +3723,11 @@
       </c>
       <c r="C54" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B54,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D54" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B54,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B54,E$1),2)=1, "Ég", "")</f>
@@ -3760,15 +3756,15 @@
       </c>
       <c r="B55" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C55" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B55,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D55" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B55,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E55" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B55,E$1),2)=1, "Ég", "")</f>
@@ -3776,11 +3772,11 @@
       </c>
       <c r="F55" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B55,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G55" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B55,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H55" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B55,H$1),2)=1, "Ég", "")</f>
@@ -3797,15 +3793,15 @@
       </c>
       <c r="B56" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C56" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B56,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D56" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B56,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E56" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B56,E$1),2)=1, "Ég", "")</f>
@@ -3817,15 +3813,15 @@
       </c>
       <c r="G56" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B56,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H56" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B56,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,11 +3830,11 @@
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C57" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B57,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D57" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B57,D$1),2)=1, "Ég", "")</f>
@@ -3846,7 +3842,7 @@
       </c>
       <c r="E57" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B57,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F57" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B57,F$1),2)=1, "Ég", "")</f>
@@ -3854,15 +3850,15 @@
       </c>
       <c r="G57" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B57,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H57" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B57,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3871,11 +3867,11 @@
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C58" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B58,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D58" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B58,D$1),2)=1, "Ég", "")</f>
@@ -3895,11 +3891,11 @@
       </c>
       <c r="H58" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B58,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3912,7 +3908,7 @@
       </c>
       <c r="C59" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B59,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D59" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B59,D$1),2)=1, "Ég", "")</f>
@@ -3932,11 +3928,11 @@
       </c>
       <c r="H59" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B59,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3949,7 +3945,7 @@
       </c>
       <c r="C60" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B60,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D60" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B60,D$1),2)=1, "Ég", "")</f>
@@ -3969,7 +3965,7 @@
       </c>
       <c r="H60" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B60,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I60" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -3982,11 +3978,11 @@
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C61" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B61,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D61" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B61,D$1),2)=1, "Ég", "")</f>
@@ -3994,11 +3990,11 @@
       </c>
       <c r="E61" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B61,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F61" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B61,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G61" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B61,G$1),2)=1, "Ég", "")</f>
@@ -4006,11 +4002,11 @@
       </c>
       <c r="H61" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B61,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4019,7 +4015,7 @@
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C62" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B62,C$1),2)=1, "Ég", "")</f>
@@ -4027,15 +4023,15 @@
       </c>
       <c r="D62" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B62,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E62" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B62,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F62" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B62,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G62" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B62,G$1),2)=1, "Ég", "")</f>
@@ -4043,11 +4039,11 @@
       </c>
       <c r="H62" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B62,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4056,7 +4052,7 @@
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C63" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B63,C$1),2)=1, "Ég", "")</f>
@@ -4064,7 +4060,7 @@
       </c>
       <c r="D63" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B63,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E63" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B63,E$1),2)=1, "Ég", "")</f>
@@ -4072,7 +4068,7 @@
       </c>
       <c r="F63" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B63,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G63" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B63,G$1),2)=1, "Ég", "")</f>
@@ -4084,7 +4080,7 @@
       </c>
       <c r="I63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,7 +4089,7 @@
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C64" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B64,C$1),2)=1, "Ég", "")</f>
@@ -4105,11 +4101,11 @@
       </c>
       <c r="E64" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B64,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F64" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B64,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G64" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B64,G$1),2)=1, "Ég", "")</f>
@@ -4121,7 +4117,7 @@
       </c>
       <c r="I64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4130,7 +4126,7 @@
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C65" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B65,C$1),2)=1, "Ég", "")</f>
@@ -4142,7 +4138,7 @@
       </c>
       <c r="E65" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B65,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F65" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B65,F$1),2)=1, "Ég", "")</f>
@@ -4150,7 +4146,7 @@
       </c>
       <c r="G65" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B65,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H65" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B65,H$1),2)=1, "Ég", "")</f>
@@ -4167,7 +4163,7 @@
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C66" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B66,C$1),2)=1, "Ég", "")</f>
@@ -4179,7 +4175,7 @@
       </c>
       <c r="E66" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B66,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F66" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B66,F$1),2)=1, "Ég", "")</f>
@@ -4191,7 +4187,7 @@
       </c>
       <c r="H66" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B66,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -4204,7 +4200,7 @@
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" ref="B67:B101" ca="1" si="3">INDEX($C$1:$H$1,RANDBETWEEN(1,6))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C67" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B67,C$1),2)=1, "Ég", "")</f>
@@ -4212,15 +4208,15 @@
       </c>
       <c r="D67" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B67,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E67" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B67,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F67" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B67,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G67" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B67,G$1),2)=1, "Ég", "")</f>
@@ -4228,11 +4224,11 @@
       </c>
       <c r="H67" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B67,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4241,7 +4237,7 @@
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C68" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B68,C$1),2)=1, "Ég", "")</f>
@@ -4253,19 +4249,19 @@
       </c>
       <c r="E68" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B68,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F68" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B68,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G68" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B68,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H68" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B68,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" ref="I68:I102" ca="1" si="4">COUNTIF(C68:H68,"Ég")</f>
@@ -4278,7 +4274,7 @@
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C69" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B69,C$1),2)=1, "Ég", "")</f>
@@ -4286,19 +4282,19 @@
       </c>
       <c r="D69" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B69,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E69" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B69,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F69" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B69,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G69" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B69,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H69" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B69,H$1),2)=1, "Ég", "")</f>
@@ -4306,7 +4302,7 @@
       </c>
       <c r="I69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4315,7 +4311,7 @@
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C70" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B70,C$1),2)=1, "Ég", "")</f>
@@ -4331,11 +4327,11 @@
       </c>
       <c r="F70" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B70,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G70" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B70,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H70" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B70,H$1),2)=1, "Ég", "")</f>
@@ -4352,7 +4348,7 @@
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C71" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B71,C$1),2)=1, "Ég", "")</f>
@@ -4389,7 +4385,7 @@
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C72" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B72,C$1),2)=1, "Ég", "")</f>
@@ -4401,11 +4397,11 @@
       </c>
       <c r="E72" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B72,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F72" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B72,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G72" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B72,G$1),2)=1, "Ég", "")</f>
@@ -4417,7 +4413,7 @@
       </c>
       <c r="I72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4426,7 +4422,7 @@
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C73" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B73,C$1),2)=1, "Ég", "")</f>
@@ -4434,19 +4430,19 @@
       </c>
       <c r="D73" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B73,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E73" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B73,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F73" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B73,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G73" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B73,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H73" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B73,H$1),2)=1, "Ég", "")</f>
@@ -4454,7 +4450,7 @@
       </c>
       <c r="I73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4463,7 +4459,7 @@
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C74" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B74,C$1),2)=1, "Ég", "")</f>
@@ -4471,11 +4467,11 @@
       </c>
       <c r="D74" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B74,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E74" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B74,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F74" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B74,F$1),2)=1, "Ég", "")</f>
@@ -4483,11 +4479,11 @@
       </c>
       <c r="G74" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B74,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H74" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B74,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4500,7 +4496,7 @@
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C75" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B75,C$1),2)=1, "Ég", "")</f>
@@ -4508,19 +4504,19 @@
       </c>
       <c r="D75" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B75,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E75" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B75,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F75" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B75,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G75" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B75,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H75" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B75,H$1),2)=1, "Ég", "")</f>
@@ -4528,7 +4524,7 @@
       </c>
       <c r="I75" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4537,7 +4533,7 @@
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C76" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B76,C$1),2)=1, "Ég", "")</f>
@@ -4545,7 +4541,7 @@
       </c>
       <c r="D76" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B76,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E76" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B76,E$1),2)=1, "Ég", "")</f>
@@ -4557,7 +4553,7 @@
       </c>
       <c r="G76" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B76,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H76" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B76,H$1),2)=1, "Ég", "")</f>
@@ -4574,15 +4570,15 @@
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C77" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B77,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D77" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B77,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E77" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B77,E$1),2)=1, "Ég", "")</f>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C78" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B78,C$1),2)=1, "Ég", "")</f>
@@ -4619,11 +4615,11 @@
       </c>
       <c r="D78" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B78,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E78" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B78,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F78" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B78,F$1),2)=1, "Ég", "")</f>
@@ -4656,11 +4652,11 @@
       </c>
       <c r="D79" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B79,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E79" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B79,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F79" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B79,F$1),2)=1, "Ég", "")</f>
@@ -4685,15 +4681,15 @@
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C80" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B80,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D80" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B80,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E80" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B80,E$1),2)=1, "Ég", "")</f>
@@ -4722,19 +4718,19 @@
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C81" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B81,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D81" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B81,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E81" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B81,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F81" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B81,F$1),2)=1, "Ég", "")</f>
@@ -4746,7 +4742,7 @@
       </c>
       <c r="H81" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B81,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I81" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4759,15 +4755,15 @@
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C82" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B82,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D82" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B82,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E82" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B82,E$1),2)=1, "Ég", "")</f>
@@ -4775,7 +4771,7 @@
       </c>
       <c r="F82" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B82,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G82" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B82,G$1),2)=1, "Ég", "")</f>
@@ -4783,7 +4779,7 @@
       </c>
       <c r="H82" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B82,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I82" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4796,19 +4792,19 @@
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C83" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B83,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D83" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B83,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E83" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B83,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F83" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B83,F$1),2)=1, "Ég", "")</f>
@@ -4820,11 +4816,11 @@
       </c>
       <c r="H83" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B83,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I83" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4833,15 +4829,15 @@
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C84" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B84,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D84" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B84,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E84" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B84,E$1),2)=1, "Ég", "")</f>
@@ -4849,7 +4845,7 @@
       </c>
       <c r="F84" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B84,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G84" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B84,G$1),2)=1, "Ég", "")</f>
@@ -4857,7 +4853,7 @@
       </c>
       <c r="H84" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B84,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I84" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4870,31 +4866,31 @@
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C85" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B85,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D85" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B85,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E85" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B85,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F85" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B85,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G85" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B85,G$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H85" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B85,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I85" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4907,19 +4903,19 @@
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C86" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B86,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D86" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B86,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E86" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B86,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F86" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B86,F$1),2)=1, "Ég", "")</f>
@@ -4931,11 +4927,11 @@
       </c>
       <c r="H86" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B86,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I86" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4944,11 +4940,11 @@
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C87" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B87,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D87" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B87,D$1),2)=1, "Ég", "")</f>
@@ -4956,11 +4952,11 @@
       </c>
       <c r="E87" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B87,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F87" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B87,F$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G87" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B87,G$1),2)=1, "Ég", "")</f>
@@ -4968,11 +4964,11 @@
       </c>
       <c r="H87" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B87,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I87" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,7 +4977,7 @@
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C88" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B88,C$1),2)=1, "Ég", "")</f>
@@ -4993,7 +4989,7 @@
       </c>
       <c r="E88" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B88,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F88" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B88,F$1),2)=1, "Ég", "")</f>
@@ -5005,11 +5001,11 @@
       </c>
       <c r="H88" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B88,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I88" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,7 +5014,7 @@
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C89" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B89,C$1),2)=1, "Ég", "")</f>
@@ -5034,7 +5030,7 @@
       </c>
       <c r="F89" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B89,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G89" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B89,G$1),2)=1, "Ég", "")</f>
@@ -5042,7 +5038,7 @@
       </c>
       <c r="H89" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B89,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I89" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -5071,7 +5067,7 @@
       </c>
       <c r="F90" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B90,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G90" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B90,G$1),2)=1, "Ég", "")</f>
@@ -5079,7 +5075,7 @@
       </c>
       <c r="H90" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B90,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I90" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -5092,7 +5088,7 @@
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C91" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B91,C$1),2)=1, "Ég", "")</f>
@@ -5100,15 +5096,15 @@
       </c>
       <c r="D91" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B91,D$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E91" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B91,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F91" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B91,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G91" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B91,G$1),2)=1, "Ég", "")</f>
@@ -5116,11 +5112,11 @@
       </c>
       <c r="H91" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B91,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I91" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5129,7 +5125,7 @@
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C92" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B92,C$1),2)=1, "Ég", "")</f>
@@ -5141,7 +5137,7 @@
       </c>
       <c r="E92" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B92,E$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F92" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B92,F$1),2)=1, "Ég", "")</f>
@@ -5153,11 +5149,11 @@
       </c>
       <c r="H92" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B92,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I92" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5166,7 +5162,7 @@
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C93" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B93,C$1),2)=1, "Ég", "")</f>
@@ -5174,7 +5170,7 @@
       </c>
       <c r="D93" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B93,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E93" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B93,E$1),2)=1, "Ég", "")</f>
@@ -5190,7 +5186,7 @@
       </c>
       <c r="H93" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B93,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I93" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -5203,7 +5199,7 @@
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C94" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B94,C$1),2)=1, "Ég", "")</f>
@@ -5211,11 +5207,11 @@
       </c>
       <c r="D94" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B94,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E94" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B94,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F94" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B94,F$1),2)=1, "Ég", "")</f>
@@ -5231,7 +5227,7 @@
       </c>
       <c r="I94" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5248,11 +5244,11 @@
       </c>
       <c r="D95" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B95,D$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E95" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B95,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F95" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B95,F$1),2)=1, "Ég", "")</f>
@@ -5268,7 +5264,7 @@
       </c>
       <c r="I95" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5277,7 +5273,7 @@
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C96" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B96,C$1),2)=1, "Ég", "")</f>
@@ -5289,7 +5285,7 @@
       </c>
       <c r="E96" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B96,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F96" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B96,F$1),2)=1, "Ég", "")</f>
@@ -5301,7 +5297,7 @@
       </c>
       <c r="H96" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B96,H$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I96" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -5314,7 +5310,7 @@
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C97" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B97,C$1),2)=1, "Ég", "")</f>
@@ -5326,7 +5322,7 @@
       </c>
       <c r="E97" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B97,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F97" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B97,F$1),2)=1, "Ég", "")</f>
@@ -5334,7 +5330,7 @@
       </c>
       <c r="G97" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B97,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H97" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B97,H$1),2)=1, "Ég", "")</f>
@@ -5351,7 +5347,7 @@
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C98" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B98,C$1),2)=1, "Ég", "")</f>
@@ -5363,11 +5359,11 @@
       </c>
       <c r="E98" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B98,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F98" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B98,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G98" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B98,G$1),2)=1, "Ég", "")</f>
@@ -5379,7 +5375,7 @@
       </c>
       <c r="I98" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5388,11 +5384,11 @@
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C99" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B99,C$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D99" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B99,D$1),2)=1, "Ég", "")</f>
@@ -5400,23 +5396,23 @@
       </c>
       <c r="E99" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B99,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F99" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B99,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G99" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B99,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H99" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B99,H$1),2)=1, "Ég", "")</f>
         <v/>
       </c>
       <c r="I99" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f ca="1">COUNTIF(C99:H99,"Ég")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5425,7 +5421,7 @@
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C100" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B100,C$1),2)=1, "Ég", "")</f>
@@ -5437,11 +5433,11 @@
       </c>
       <c r="E100" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B100,E$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F100" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B100,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G100" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B100,G$1),2)=1, "Ég", "")</f>
@@ -5453,7 +5449,7 @@
       </c>
       <c r="I100" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5462,7 +5458,7 @@
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C101" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B101,C$1),2)=1, "Ég", "")</f>
@@ -5478,11 +5474,11 @@
       </c>
       <c r="F101" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B101,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G101" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B101,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H101" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B101,H$1),2)=1, "Ég", "")</f>
@@ -5499,11 +5495,11 @@
       </c>
       <c r="B102" s="4" t="str">
         <f ca="1">INDEX($C$1:$H$1,RANDBETWEEN(1,6))</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C102" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B102,C$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D102" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B102,D$1),2)=1, "Ég", "")</f>
@@ -5515,15 +5511,15 @@
       </c>
       <c r="F102" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B102,F$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G102" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B102,G$1),2)=1, "Ég", "")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H102" s="4" t="str">
         <f ca="1">IF(MOD(COUNTIF($B$3:$B102,H$1),2)=1, "Ég", "")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I102" s="4">
         <f t="shared" ca="1" si="4"/>
